--- a/CodePintails_NewEqn/Baseline1/network_inputs_juvenile_male.xlsx
+++ b/CodePintails_NewEqn/Baseline1/network_inputs_juvenile_male.xlsx
@@ -579,9 +579,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>34200</xdr:colOff>
+      <xdr:colOff>33840</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>28800</xdr:rowOff>
+      <xdr:rowOff>28440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -590,8 +590,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7435800" y="3062880"/>
-          <a:ext cx="1532520" cy="485640"/>
+          <a:off x="7321680" y="3062880"/>
+          <a:ext cx="1503720" cy="485280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -653,10 +653,10 @@
       <xdr:rowOff>157320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>585360</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>3960</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>112680</xdr:rowOff>
+      <xdr:rowOff>112320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -665,8 +665,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7396200" y="2379600"/>
-          <a:ext cx="1532880" cy="603720"/>
+          <a:off x="7282080" y="2379600"/>
+          <a:ext cx="1513440" cy="603360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -760,9 +760,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>349560</xdr:colOff>
+      <xdr:colOff>349200</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>18360</xdr:rowOff>
+      <xdr:rowOff>18000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -771,8 +771,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7422120" y="2396160"/>
-          <a:ext cx="1385640" cy="488880"/>
+          <a:off x="7307640" y="2396160"/>
+          <a:ext cx="1366200" cy="488520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -840,9 +840,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>72000</xdr:colOff>
+      <xdr:colOff>71640</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>18720</xdr:rowOff>
+      <xdr:rowOff>18360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -851,8 +851,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7362000" y="2398320"/>
-          <a:ext cx="1168200" cy="487080"/>
+          <a:off x="7247520" y="2398320"/>
+          <a:ext cx="1148760" cy="486720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -924,7 +924,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="12.8265306122449"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -999,10 +999,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="16" min="2" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="16" min="2" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1094,7 +1094,7 @@
         <v>32</v>
       </c>
       <c r="Q2" s="0" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1686,11 +1686,11 @@
       </c>
       <c r="F27" s="35" t="n">
         <f aca="false">2.75*$Q$2</f>
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="G27" s="35" t="n">
         <f aca="false">2.75*$Q$2</f>
-        <v>0.22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1709,11 +1709,11 @@
       </c>
       <c r="F28" s="35" t="n">
         <f aca="false">2.75*$Q$2</f>
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="G28" s="35" t="n">
         <f aca="false">2.75*$Q$2</f>
-        <v>0.22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1732,11 +1732,11 @@
       </c>
       <c r="F29" s="35" t="n">
         <f aca="false">2.75*$Q$2</f>
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="G29" s="35" t="n">
         <f aca="false">2.75*$Q$2</f>
-        <v>0.22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1974,9 +1974,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="1023" min="2" style="1" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="1023" min="2" style="1" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" s="17" customFormat="true" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2957,8 +2957,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="17" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="1" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="17" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="1" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" s="17" customFormat="true" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
